--- a/Crawling/crawling_data/day_genie/day_genie_20220331.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220331.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>날짜</t>
   </si>
@@ -58,8 +58,7 @@
     <t>다정히 내 이름을 부르면</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>사랑은 늘 도망가</t>
@@ -287,8 +286,7 @@
     <t>MY BAG</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
@@ -562,9 +560,6 @@
   </si>
   <si>
     <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>신사와 아가씨 OST Part.2</t>
@@ -1254,7 +1249,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1271,7 +1266,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1305,7 +1300,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1356,7 +1351,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1373,7 +1368,7 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1424,7 +1419,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1441,7 +1436,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1492,7 +1487,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1509,7 +1504,7 @@
         <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1526,7 +1521,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1543,7 +1538,7 @@
         <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1577,7 +1572,7 @@
         <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1646,7 +1641,7 @@
         <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1663,7 +1658,7 @@
         <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1680,7 +1675,7 @@
         <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1697,7 +1692,7 @@
         <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1714,7 +1709,7 @@
         <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1731,7 +1726,7 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1748,7 +1743,7 @@
         <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1782,7 +1777,7 @@
         <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1816,7 +1811,7 @@
         <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1833,7 +1828,7 @@
         <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1850,7 +1845,7 @@
         <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1867,7 +1862,7 @@
         <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1884,7 +1879,7 @@
         <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1901,7 +1896,7 @@
         <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1918,7 +1913,7 @@
         <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1952,7 +1947,7 @@
         <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1969,7 +1964,7 @@
         <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1986,7 +1981,7 @@
         <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2020,7 +2015,7 @@
         <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2054,7 +2049,7 @@
         <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2071,7 +2066,7 @@
         <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2088,7 +2083,7 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2105,7 +2100,7 @@
         <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2122,7 +2117,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2156,7 +2151,7 @@
         <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2173,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2190,7 +2185,7 @@
         <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2207,7 +2202,7 @@
         <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2224,7 +2219,7 @@
         <v>153</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2241,7 +2236,7 @@
         <v>154</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2292,7 +2287,7 @@
         <v>157</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2309,7 +2304,7 @@
         <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2326,7 +2321,7 @@
         <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2343,7 +2338,7 @@
         <v>160</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2360,7 +2355,7 @@
         <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2377,7 +2372,7 @@
         <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2394,7 +2389,7 @@
         <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2411,7 +2406,7 @@
         <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2445,7 +2440,7 @@
         <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2496,7 +2491,7 @@
         <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2547,7 +2542,7 @@
         <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2581,7 +2576,7 @@
         <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2615,7 +2610,7 @@
         <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2666,7 +2661,7 @@
         <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2717,7 +2712,7 @@
         <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2734,7 +2729,7 @@
         <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2768,7 +2763,7 @@
         <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:5">
